--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C87F76-D6DE-49DB-ACF6-E8D1277258D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41C6CB-4239-40A1-830D-77A5BED988BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="301">
   <si>
     <t>Cartegory</t>
   </si>
@@ -723,9 +723,6 @@
     <t>Tactile Sensing II</t>
   </si>
   <si>
-    <t>Brain-Machine interfaces for Human Robot Interaction</t>
-  </si>
-  <si>
     <t>Cognitive Human Robot Interaction</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>mp4</t>
   </si>
   <si>
-    <t>YouTube</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -903,9 +897,6 @@
     <t>Webpage Link</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>3D Model Learning</t>
   </si>
   <si>
@@ -930,7 +921,25 @@
     <t>Perception, Action, and Cognition</t>
   </si>
   <si>
-    <t>Naver Labs</t>
+    <t>NAVER LABS</t>
+  </si>
+  <si>
+    <t>Brain-Machine Interfaces for Human Robot Interaction</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Robotis</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>mylist</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1369,19 +1378,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1392,13 +1401,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1406,16 +1415,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1423,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1440,22 +1449,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1463,22 +1472,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1486,22 +1495,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1509,22 +1518,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1532,22 +1541,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1555,22 +1564,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1578,22 +1587,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1601,22 +1610,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1624,22 +1633,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1647,22 +1656,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1670,22 +1679,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1693,22 +1702,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1716,22 +1725,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1739,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1762,22 +1771,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1785,22 +1794,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1808,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1831,22 +1840,22 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1854,22 +1863,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1877,22 +1886,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1900,22 +1909,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1923,25 +1932,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1949,25 +1958,25 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1975,25 +1984,25 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2001,25 +2010,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2027,25 +2036,25 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2053,25 +2062,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2079,25 +2088,25 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2105,25 +2114,25 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2131,25 +2140,25 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2157,25 +2166,25 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2183,25 +2192,25 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2209,25 +2218,25 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2235,25 +2244,25 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2261,25 +2270,25 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2287,25 +2296,25 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2313,25 +2322,25 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2339,25 +2348,25 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2365,25 +2374,25 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2391,32 +2400,62 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="B45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="E45" s="3"/>
+      <c r="F45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="E47" s="3"/>
@@ -2449,11 +2488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,7 +2512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2485,7 +2523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2496,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2507,7 +2545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2518,7 +2556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2526,10 +2564,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2537,10 +2575,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2548,10 +2586,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2562,7 +2600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2573,7 +2611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2584,7 +2622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2595,7 +2633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2606,7 +2644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2617,7 +2655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2628,7 +2666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2639,7 +2677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2650,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2661,7 +2699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2672,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2683,7 +2721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2694,7 +2732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2705,7 +2743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2716,7 +2754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2727,7 +2765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2738,7 +2776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2749,7 +2787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2757,10 +2795,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2768,10 +2806,10 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2782,7 +2820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2793,7 +2831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2804,7 +2842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2815,7 +2853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2826,7 +2864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2837,7 +2875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2848,7 +2886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2859,7 +2897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2870,7 +2908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2881,7 +2919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2892,7 +2930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2903,7 +2941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2914,7 +2952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2925,7 +2963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2936,7 +2974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2947,7 +2985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2958,7 +2996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2969,7 +3007,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2980,7 +3018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2991,7 +3029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3002,7 +3040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3013,7 +3051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3024,7 +3062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3035,7 +3073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3046,7 +3084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3057,7 +3095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3068,7 +3106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3079,7 +3117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3090,7 +3128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3101,7 +3139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3112,7 +3150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3123,7 +3161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3134,7 +3172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3145,7 +3183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3156,7 +3194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3167,7 +3205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3178,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3189,7 +3227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3200,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3211,7 +3249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3222,7 +3260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3233,7 +3271,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3244,7 +3282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3255,7 +3293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3266,7 +3304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3277,7 +3315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3288,7 +3326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3307,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3417,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3428,7 +3466,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3439,7 +3477,7 @@
         <v>18</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3582,7 +3620,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3593,7 +3631,7 @@
         <v>18</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3761,7 +3799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3772,7 +3810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3783,7 +3821,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3794,7 +3832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3816,7 +3854,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3827,7 +3865,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3838,7 +3876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3849,7 +3887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3860,7 +3898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3871,7 +3909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3882,7 +3920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3893,7 +3931,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3904,7 +3942,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3915,7 +3953,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3926,7 +3964,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3937,7 +3975,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3948,7 +3986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3959,7 +3997,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3970,7 +4008,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3981,7 +4019,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3992,7 +4030,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4003,7 +4041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4014,7 +4052,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4025,7 +4063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4036,7 +4074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4047,7 +4085,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4058,7 +4096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4066,10 +4104,10 @@
         <v>20</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4077,10 +4115,10 @@
         <v>20</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4091,7 +4129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4102,7 +4140,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4121,10 +4159,10 @@
         <v>20</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4135,7 +4173,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4146,7 +4184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4157,7 +4195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4168,7 +4206,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4179,7 +4217,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4190,7 +4228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4201,7 +4239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4212,7 +4250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4223,7 +4261,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4234,7 +4272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4245,7 +4283,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4256,7 +4294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4267,7 +4305,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4278,7 +4316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4286,10 +4324,10 @@
         <v>20</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4300,7 +4338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4311,7 +4349,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4322,7 +4360,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4333,7 +4371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4344,7 +4382,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4355,7 +4393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4366,7 +4404,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4377,7 +4415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4388,7 +4426,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4399,7 +4437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4410,7 +4448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4443,7 +4481,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4454,7 +4492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4465,7 +4503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4476,7 +4514,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4487,7 +4525,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4498,7 +4536,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4509,7 +4547,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4520,7 +4558,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4531,7 +4569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4542,7 +4580,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4553,7 +4591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4564,7 +4602,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4575,7 +4613,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4586,7 +4624,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4597,7 +4635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4608,7 +4646,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4619,7 +4657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4630,7 +4668,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4641,7 +4679,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4652,7 +4690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4685,7 +4723,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4696,7 +4734,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4707,7 +4745,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4718,7 +4756,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4729,7 +4767,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4740,7 +4778,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4751,7 +4789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4762,7 +4800,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4784,7 +4822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4806,7 +4844,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4817,7 +4855,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4828,7 +4866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4839,7 +4877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4847,10 +4885,10 @@
         <v>21</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4858,10 +4896,10 @@
         <v>21</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4872,7 +4910,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4883,7 +4921,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4894,7 +4932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4905,7 +4943,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4916,7 +4954,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4924,10 +4962,10 @@
         <v>21</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4935,10 +4973,10 @@
         <v>23</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4946,10 +4984,10 @@
         <v>23</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4957,10 +4995,10 @@
         <v>23</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4968,10 +5006,10 @@
         <v>23</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4979,10 +5017,10 @@
         <v>23</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4990,10 +5028,10 @@
         <v>23</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5001,10 +5039,10 @@
         <v>23</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5012,10 +5050,10 @@
         <v>23</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5023,10 +5061,10 @@
         <v>23</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5034,10 +5072,10 @@
         <v>23</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5045,10 +5083,10 @@
         <v>23</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5056,10 +5094,10 @@
         <v>23</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5067,10 +5105,10 @@
         <v>23</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5078,10 +5116,10 @@
         <v>23</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5089,10 +5127,10 @@
         <v>23</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5100,10 +5138,10 @@
         <v>23</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5111,10 +5149,10 @@
         <v>23</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5122,10 +5160,10 @@
         <v>24</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5133,10 +5171,10 @@
         <v>24</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5144,10 +5182,10 @@
         <v>24</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5155,10 +5193,10 @@
         <v>24</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5166,10 +5204,10 @@
         <v>24</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5177,10 +5215,10 @@
         <v>24</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5188,10 +5226,10 @@
         <v>24</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5199,10 +5237,10 @@
         <v>24</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5210,10 +5248,10 @@
         <v>24</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5221,10 +5259,10 @@
         <v>24</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5232,10 +5270,10 @@
         <v>24</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5243,10 +5281,10 @@
         <v>25</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5254,10 +5292,10 @@
         <v>25</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5265,10 +5303,10 @@
         <v>25</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5276,10 +5314,10 @@
         <v>25</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5287,10 +5325,10 @@
         <v>25</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5298,10 +5336,10 @@
         <v>25</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5309,10 +5347,10 @@
         <v>25</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5324,13 +5362,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C260" xr:uid="{1B8703AA-0DCD-40E4-945C-71786370758E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Localization, Mapping and Navigation "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C260" xr:uid="{1B8703AA-0DCD-40E4-945C-71786370758E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41C6CB-4239-40A1-830D-77A5BED988BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165EAE24-A79E-442F-AB25-55B5C90E35B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="307">
   <si>
     <t>Cartegory</t>
   </si>
@@ -81,45 +81,6 @@
     <t>Session Title</t>
   </si>
   <si>
-    <t>Air, Sea, and Space Robots </t>
-  </si>
-  <si>
-    <t>Driverless Vehicles and Field Robots </t>
-  </si>
-  <si>
-    <t>Medical, Cellular, Micro and Nano Robots </t>
-  </si>
-  <si>
-    <t>Humanoids, Exoskeletons, and Rehab Robots </t>
-  </si>
-  <si>
-    <t>Localization, Mapping and Navigation </t>
-  </si>
-  <si>
-    <t>Dynamics, Control and Learning </t>
-  </si>
-  <si>
-    <t>Design, Mechanisms, Actuators, Soft and Bio-Inspired Robots </t>
-  </si>
-  <si>
-    <t>Grasping, Haptics and End-effectors </t>
-  </si>
-  <si>
-    <t>Perception, Action, and Cognition </t>
-  </si>
-  <si>
-    <t>Human-Robot Interaction, Teleoperation, and VR </t>
-  </si>
-  <si>
-    <t>Swarms and Multi-Robots </t>
-  </si>
-  <si>
-    <t>Industry 4.0 </t>
-  </si>
-  <si>
-    <t>https://www.naverlabs.com/</t>
-  </si>
-  <si>
     <t>AI and Learning for Autonomous Driving Applications</t>
   </si>
   <si>
@@ -897,21 +858,12 @@
     <t>Webpage Link</t>
   </si>
   <si>
-    <t>3D Model Learning</t>
-  </si>
-  <si>
     <t>tpP0eTF8QXM</t>
   </si>
   <si>
-    <t>https://research.samsung.com/</t>
-  </si>
-  <si>
     <t>TRI</t>
   </si>
   <si>
-    <t>Activity Recognition</t>
-  </si>
-  <si>
     <t>Theme</t>
   </si>
   <si>
@@ -940,13 +892,79 @@
   </si>
   <si>
     <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>https://sra.samsung.com/join-us</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>The Samsung AI Center New York is researching advanced robotic manipulation and perception. The Center collaborates with global Samsung research centers along with leading academic groups.</t>
+  </si>
+  <si>
+    <t>NAVER LABS creates new connections between people, machines, spaces and information by advancing technology in AI, robotics, autonomous driving, 3D/HD mapping and AR.</t>
+  </si>
+  <si>
+    <t>https://www.naverlabs.com/en/</t>
+  </si>
+  <si>
+    <t>Driverless Vehicles and Field Robots</t>
+  </si>
+  <si>
+    <t>Air, Sea, and Space Robots</t>
+  </si>
+  <si>
+    <t>Medical, Cellular, Micro and Nano Robots</t>
+  </si>
+  <si>
+    <t>Humanoids, Exoskeletons, and Rehab Robots</t>
+  </si>
+  <si>
+    <t>Dynamics, Control and Learning</t>
+  </si>
+  <si>
+    <t>Design, Mechanisms, Actuators, Soft and Bio-Inspired Robots</t>
+  </si>
+  <si>
+    <t>Grasping, Haptics and End-effectors</t>
+  </si>
+  <si>
+    <t>Human-Robot Interaction, Teleoperation, and VR</t>
+  </si>
+  <si>
+    <t>Swarms and Multi-Robots</t>
+  </si>
+  <si>
+    <t>Industry 4.0</t>
+  </si>
+  <si>
+    <t>Industry 4.1</t>
+  </si>
+  <si>
+    <t>Industry 4.2</t>
+  </si>
+  <si>
+    <t>Industry 4.3</t>
+  </si>
+  <si>
+    <t>Industry 4.4</t>
+  </si>
+  <si>
+    <t>Industry 4.5</t>
+  </si>
+  <si>
+    <t>Industry 4.6</t>
+  </si>
+  <si>
+    <t>Industry 4.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,8 +997,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,8 +1021,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1003,11 +1047,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,11 +1072,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1345,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,7 +1423,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1378,22 +1434,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1401,1066 +1460,1186 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>278</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>278</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>97</v>
+        <v>278</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>99</v>
+        <v>278</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>102</v>
+        <v>278</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>103</v>
+        <v>278</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>105</v>
+        <v>278</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>108</v>
+        <v>278</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>278</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
+        <v>278</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>111</v>
+        <v>278</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>112</v>
+        <v>278</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>119</v>
+        <v>278</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>121</v>
+        <v>278</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>179</v>
+        <v>284</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>180</v>
+        <v>284</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>191</v>
+        <v>284</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>192</v>
+        <v>284</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>193</v>
+        <v>284</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>196</v>
+        <v>284</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:5">
@@ -2478,11 +2657,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{589B9A23-2A87-4B39-9EFD-EDB866ADC4EA}"/>
-    <hyperlink ref="E27:E44" r:id="rId2" display="https://research.samsung.com/" xr:uid="{1E0F924F-EC03-41E3-BC27-F321B2D43E6A}"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{18CE1D62-48D9-40C4-8B4C-D7E637884519}"/>
+    <hyperlink ref="E27:E44" r:id="rId2" display="https://sra.samsung.com/join-us" xr:uid="{48B970DD-5117-406D-8631-B85102C47648}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
+    <hyperlink ref="E6:E25" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2490,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210:B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2517,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2528,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2539,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2550,10 +2731,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2561,10 +2742,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2572,10 +2753,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2583,10 +2764,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2594,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2605,10 +2786,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2616,10 +2797,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2627,10 +2808,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2638,10 +2819,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2649,10 +2830,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2660,10 +2841,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2671,10 +2852,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2682,10 +2863,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2693,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2704,10 +2885,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2715,10 +2896,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2726,10 +2907,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2737,10 +2918,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2748,10 +2929,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2759,10 +2940,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2770,10 +2951,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2781,10 +2962,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2792,10 +2973,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2803,10 +2984,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2814,10 +2995,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2825,10 +3006,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2836,10 +3017,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2847,10 +3028,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2858,10 +3039,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2869,10 +3050,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2880,10 +3061,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2891,10 +3072,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2902,10 +3083,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2913,10 +3094,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2924,10 +3105,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2935,10 +3116,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2946,10 +3127,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2957,10 +3138,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2968,10 +3149,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2979,10 +3160,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2990,10 +3171,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3001,10 +3182,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3012,10 +3193,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3023,10 +3204,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3034,10 +3215,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3045,10 +3226,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3056,10 +3237,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3067,10 +3248,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3078,10 +3259,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3089,10 +3270,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3100,10 +3281,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3111,10 +3292,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3122,10 +3303,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3133,10 +3314,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3144,10 +3325,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3155,10 +3336,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3166,10 +3347,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3177,10 +3358,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3188,10 +3369,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3199,10 +3380,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3210,7 +3391,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -3221,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -3232,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
@@ -3243,10 +3424,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3254,10 +3435,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3265,10 +3446,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3276,10 +3457,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3287,10 +3468,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3298,10 +3479,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3309,10 +3490,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3320,10 +3501,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3331,219 +3512,219 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>93</v>
+        <v>276</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>94</v>
+        <v>276</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>95</v>
+        <v>276</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>97</v>
+        <v>276</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>276</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>99</v>
+        <v>276</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>276</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>276</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>102</v>
+        <v>276</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>103</v>
+        <v>276</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>105</v>
+        <v>276</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>276</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3551,252 +3732,252 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>108</v>
+        <v>276</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>109</v>
+        <v>276</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>110</v>
+        <v>276</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>111</v>
+        <v>276</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>113</v>
+        <v>276</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>114</v>
+        <v>276</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>115</v>
+        <v>276</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>276</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>276</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>119</v>
+        <v>276</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>120</v>
+        <v>276</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>121</v>
+        <v>276</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>276</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>276</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>276</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>127</v>
+        <v>276</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3804,10 +3985,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3815,10 +3996,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3826,10 +4007,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3837,10 +4018,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3848,10 +4029,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3859,10 +4040,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3870,10 +4051,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3881,10 +4062,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3892,10 +4073,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3903,10 +4084,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3914,10 +4095,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3925,10 +4106,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3936,10 +4117,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3947,10 +4128,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3958,10 +4139,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3969,10 +4150,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3980,10 +4161,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3991,10 +4172,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4002,10 +4183,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4013,10 +4194,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4024,10 +4205,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4035,10 +4216,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4046,10 +4227,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4057,10 +4238,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4068,10 +4249,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4079,10 +4260,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4090,10 +4271,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4101,10 +4282,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4112,10 +4293,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4123,10 +4304,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4134,10 +4315,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4145,10 +4326,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4156,10 +4337,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4167,10 +4348,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4178,10 +4359,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4189,10 +4370,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4200,10 +4381,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4211,10 +4392,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4222,10 +4403,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4233,10 +4414,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4244,10 +4425,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4255,10 +4436,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4266,10 +4447,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4277,10 +4458,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4288,10 +4469,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4299,10 +4480,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4310,10 +4491,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4321,10 +4502,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4332,10 +4513,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4343,10 +4524,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4354,10 +4535,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4365,10 +4546,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4376,10 +4557,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4387,10 +4568,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4398,10 +4579,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4409,10 +4590,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4420,10 +4601,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4431,10 +4612,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4442,10 +4623,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4453,10 +4634,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4464,10 +4645,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4475,10 +4656,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4486,10 +4667,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4497,10 +4678,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4508,10 +4689,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4519,10 +4700,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4530,10 +4711,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4541,10 +4722,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4552,10 +4733,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4563,10 +4744,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4574,10 +4755,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4585,10 +4766,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4596,10 +4777,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4607,10 +4788,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4618,10 +4799,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4629,10 +4810,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4640,10 +4821,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4651,10 +4832,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4662,10 +4843,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4673,10 +4854,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4684,10 +4865,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4695,10 +4876,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4706,10 +4887,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4717,10 +4898,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4728,10 +4909,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4739,10 +4920,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4750,10 +4931,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4761,10 +4942,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4772,10 +4953,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4783,10 +4964,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4794,10 +4975,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4805,10 +4986,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4816,10 +4997,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4827,10 +5008,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4838,10 +5019,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4849,10 +5030,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4860,10 +5041,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4871,10 +5052,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4882,10 +5063,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4893,10 +5074,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4904,10 +5085,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4915,10 +5096,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4926,10 +5107,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4937,10 +5118,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4948,10 +5129,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4959,10 +5140,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4970,10 +5151,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4981,10 +5162,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4992,10 +5173,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5003,10 +5184,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5014,10 +5195,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5025,10 +5206,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5036,10 +5217,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5047,10 +5228,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5058,10 +5239,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5069,10 +5250,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5080,10 +5261,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5091,10 +5272,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5102,10 +5283,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5113,10 +5294,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5124,10 +5305,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5135,10 +5316,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5146,10 +5327,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5157,10 +5338,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5168,10 +5349,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5179,10 +5360,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5190,10 +5371,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5201,10 +5382,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5212,10 +5393,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5223,10 +5404,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5234,10 +5415,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5245,10 +5426,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5256,10 +5437,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5267,10 +5448,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5278,10 +5459,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5289,10 +5470,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5300,10 +5481,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5311,10 +5492,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5322,10 +5503,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5333,10 +5514,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5344,10 +5525,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5355,14 +5536,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C260" xr:uid="{1B8703AA-0DCD-40E4-945C-71786370758E}"/>
+  <autoFilter ref="A1:C260" xr:uid="{1B8703AA-0DCD-40E4-945C-71786370758E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:C118">
+      <sortCondition ref="C77"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165EAE24-A79E-442F-AB25-55B5C90E35B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF75B1-AE12-461F-B5F0-E1A8C234E065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="310">
   <si>
     <t>Cartegory</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Sensor-based Estimation</t>
   </si>
   <si>
-    <t>3D model learning</t>
-  </si>
-  <si>
     <t>Cognitive Control Architectures</t>
   </si>
   <si>
@@ -780,9 +777,6 @@
     <t>Sim-to-Real</t>
   </si>
   <si>
-    <t>Robot Computation - Hardware, software, datasets</t>
-  </si>
-  <si>
     <t>Aerial Systems - Mechanics and Control I</t>
   </si>
   <si>
@@ -939,25 +933,40 @@
     <t>Industry 4.0</t>
   </si>
   <si>
-    <t>Industry 4.1</t>
-  </si>
-  <si>
-    <t>Industry 4.2</t>
-  </si>
-  <si>
-    <t>Industry 4.3</t>
-  </si>
-  <si>
-    <t>Industry 4.4</t>
-  </si>
-  <si>
-    <t>Industry 4.5</t>
-  </si>
-  <si>
-    <t>Industry 4.6</t>
-  </si>
-  <si>
-    <t>Industry 4.7</t>
+    <t>3D Model Learning</t>
+  </si>
+  <si>
+    <t>UMN</t>
+  </si>
+  <si>
+    <t>https://cse.umn.edu/mnri</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>Rainbow Robotics focuses on providing more convenient and productive working environment by building robots that can coexist &amp; cooperate with people across various fields.</t>
+  </si>
+  <si>
+    <t>http://www.rainbow-robotics.com/new/</t>
+  </si>
+  <si>
+    <t>Rainbow Robotics</t>
+  </si>
+  <si>
+    <t>AAAS</t>
+  </si>
+  <si>
+    <t>Springer Nature</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Sed pretium ut risus sed bibendum. Duis vel faucibus orci. Fusce viverra nisl leo, quis iaculis urna.</t>
+  </si>
+  <si>
+    <t>https://www.springernature.com/gp</t>
+  </si>
+  <si>
+    <t>Robot Computation - Hardware, Software, Datasets</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1021,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,12 +1042,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1046,13 +1072,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,11 +1127,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1401,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,22 +1488,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1460,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1474,16 +1528,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1491,16 +1545,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1508,25 +1562,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1534,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1560,25 +1614,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1586,25 +1640,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1612,25 +1666,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1638,25 +1692,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1664,25 +1718,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1690,25 +1744,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1716,25 +1770,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1742,25 +1796,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1768,25 +1822,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1794,25 +1848,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1820,25 +1874,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1846,25 +1900,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1872,25 +1926,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1898,25 +1952,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1924,25 +1978,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1950,25 +2004,25 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1976,25 +2030,25 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2002,25 +2056,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2028,25 +2082,25 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2054,28 +2108,28 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2083,28 +2137,28 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2112,28 +2166,28 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2141,28 +2195,28 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2170,28 +2224,28 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2199,28 +2253,28 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2228,28 +2282,28 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2257,28 +2311,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2286,28 +2340,28 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>296</v>
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>275</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2315,28 +2369,28 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>296</v>
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>275</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2344,28 +2398,28 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>296</v>
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>275</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2373,28 +2427,28 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>296</v>
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>275</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2402,28 +2456,28 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>296</v>
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>275</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2431,28 +2485,28 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>296</v>
+        <v>183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>275</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2460,28 +2514,28 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="D40" t="s">
+        <v>275</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2489,28 +2543,28 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>296</v>
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>275</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2518,28 +2572,28 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>296</v>
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>275</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2547,28 +2601,28 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>296</v>
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>275</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2576,83 +2630,839 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>296</v>
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>275</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="E47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2661,18 +3471,21 @@
     <hyperlink ref="E27:E44" r:id="rId2" display="https://sra.samsung.com/join-us" xr:uid="{48B970DD-5117-406D-8631-B85102C47648}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
     <hyperlink ref="E6:E25" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
+    <hyperlink ref="E47" r:id="rId5" xr:uid="{74324830-D9C2-4A33-AE2B-810A7026FEF8}"/>
+    <hyperlink ref="E69" r:id="rId6" xr:uid="{1A5550D4-7564-45EC-9501-0A294E79D7BA}"/>
+    <hyperlink ref="E70:E76" r:id="rId7" display="https://www.springernature.com/gp" xr:uid="{BA6B86D8-DDDD-4BE3-A134-046AD05492F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210:B220"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2698,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2709,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2720,7 +3533,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2731,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -2742,10 +3555,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2753,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2764,10 +3577,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2775,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -2786,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2797,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2808,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2819,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -2830,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -2841,7 +3654,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -2852,7 +3665,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -2863,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -2874,7 +3687,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -2885,7 +3698,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -2896,7 +3709,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -2907,7 +3720,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -2918,7 +3731,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -2929,7 +3742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -2940,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2951,7 +3764,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -2962,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -2973,10 +3786,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2984,10 +3797,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2995,7 +3808,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
@@ -3006,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
@@ -3017,7 +3830,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
@@ -3028,7 +3841,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -3039,7 +3852,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -3050,7 +3863,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
@@ -3061,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
@@ -3072,7 +3885,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -3083,7 +3896,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -3094,7 +3907,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -3105,7 +3918,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -3116,7 +3929,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -3127,7 +3940,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -3138,7 +3951,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -3149,7 +3962,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
@@ -3160,7 +3973,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
@@ -3171,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>51</v>
@@ -3182,7 +3995,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
@@ -3193,7 +4006,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>53</v>
@@ -3204,7 +4017,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>54</v>
@@ -3215,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -3226,7 +4039,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -3237,7 +4050,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
@@ -3248,7 +4061,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>58</v>
@@ -3259,7 +4072,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
@@ -3270,7 +4083,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
@@ -3281,7 +4094,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>61</v>
@@ -3292,7 +4105,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>62</v>
@@ -3303,7 +4116,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
@@ -3314,7 +4127,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>64</v>
@@ -3325,7 +4138,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>65</v>
@@ -3336,7 +4149,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
@@ -3347,7 +4160,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>67</v>
@@ -3358,7 +4171,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
@@ -3369,7 +4182,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>69</v>
@@ -3380,7 +4193,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>70</v>
@@ -3391,7 +4204,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -3402,7 +4215,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -3413,7 +4226,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
@@ -3424,7 +4237,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>71</v>
@@ -3435,7 +4248,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
@@ -3446,7 +4259,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>73</v>
@@ -3457,7 +4270,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>74</v>
@@ -3468,7 +4281,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>75</v>
@@ -3479,7 +4292,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>76</v>
@@ -3490,7 +4303,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>77</v>
@@ -3501,7 +4314,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>78</v>
@@ -3512,7 +4325,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>79</v>
@@ -3523,7 +4336,7 @@
         <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>93</v>
@@ -3534,7 +4347,7 @@
         <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>94</v>
@@ -3545,10 +4358,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3556,7 +4369,7 @@
         <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>103</v>
@@ -3567,7 +4380,7 @@
         <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>104</v>
@@ -3578,7 +4391,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>105</v>
@@ -3589,10 +4402,10 @@
         <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3600,10 +4413,10 @@
         <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3611,7 +4424,7 @@
         <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>111</v>
@@ -3622,7 +4435,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>86</v>
@@ -3633,7 +4446,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>87</v>
@@ -3644,7 +4457,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>88</v>
@@ -3655,7 +4468,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>89</v>
@@ -3666,7 +4479,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
@@ -3677,7 +4490,7 @@
         <v>111</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>109</v>
@@ -3688,7 +4501,7 @@
         <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>106</v>
@@ -3699,7 +4512,7 @@
         <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>107</v>
@@ -3710,7 +4523,7 @@
         <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>108</v>
@@ -3721,7 +4534,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>100</v>
@@ -3732,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>95</v>
@@ -3743,7 +4556,7 @@
         <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>112</v>
@@ -3754,7 +4567,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>113</v>
@@ -3765,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>85</v>
@@ -3776,7 +4589,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>114</v>
@@ -3787,7 +4600,7 @@
         <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>115</v>
@@ -3798,7 +4611,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>101</v>
@@ -3809,7 +4622,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>91</v>
@@ -3820,7 +4633,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>102</v>
@@ -3831,7 +4644,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>92</v>
@@ -3842,7 +4655,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>84</v>
@@ -3853,7 +4666,7 @@
         <v>80</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>83</v>
@@ -3864,7 +4677,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>110</v>
@@ -3875,7 +4688,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>96</v>
@@ -3886,7 +4699,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>97</v>
@@ -3897,7 +4710,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>98</v>
@@ -3908,7 +4721,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>99</v>
@@ -3919,10 +4732,10 @@
         <v>86</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3930,10 +4743,10 @@
         <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3941,10 +4754,10 @@
         <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3952,7 +4765,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>80</v>
@@ -3963,7 +4776,7 @@
         <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>81</v>
@@ -3974,7 +4787,7 @@
         <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>82</v>
@@ -3985,9 +4798,9 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C119" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3996,9 +4809,9 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C120" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4007,9 +4820,9 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4018,9 +4831,9 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C122" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4029,9 +4842,9 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4040,9 +4853,9 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4051,9 +4864,9 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C125" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4062,9 +4875,9 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4073,9 +4886,9 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C127" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4084,9 +4897,9 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4095,9 +4908,9 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C129" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4106,9 +4919,9 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4117,9 +4930,9 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4128,9 +4941,9 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C132" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4139,9 +4952,9 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4150,9 +4963,9 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4161,9 +4974,9 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C135" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4172,9 +4985,9 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4183,9 +4996,9 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4194,9 +5007,9 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4205,9 +5018,9 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C139" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4216,9 +5029,9 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C140" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4227,9 +5040,9 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C141" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4238,9 +5051,9 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C142" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4249,9 +5062,9 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C143" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4260,9 +5073,9 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C144" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4271,9 +5084,9 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C145" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4282,10 +5095,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4293,10 +5106,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4304,7 +5117,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>143</v>
@@ -4315,7 +5128,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>144</v>
@@ -4326,7 +5139,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>145</v>
@@ -4337,10 +5150,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4348,7 +5161,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>146</v>
@@ -4359,7 +5172,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>147</v>
@@ -4370,7 +5183,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>148</v>
@@ -4381,7 +5194,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>149</v>
@@ -4392,7 +5205,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>150</v>
@@ -4403,7 +5216,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>151</v>
@@ -4414,7 +5227,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>152</v>
@@ -4425,7 +5238,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>153</v>
@@ -4436,7 +5249,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>154</v>
@@ -4447,7 +5260,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>155</v>
@@ -4458,7 +5271,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>156</v>
@@ -4469,7 +5282,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>157</v>
@@ -4480,7 +5293,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>158</v>
@@ -4491,7 +5304,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>159</v>
@@ -4502,10 +5315,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4513,7 +5326,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>160</v>
@@ -4524,7 +5337,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>161</v>
@@ -4535,7 +5348,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>162</v>
@@ -4546,7 +5359,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>163</v>
@@ -4557,9 +5370,9 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C171" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4568,9 +5381,9 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C172" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4579,9 +5392,9 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C173" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4590,9 +5403,9 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C174" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4601,9 +5414,9 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4612,186 +5425,189 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C176" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C177" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C181" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C181" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C182" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C183" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C184" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="H184" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C185" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C186" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C189" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C190" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>185</v>
+        <v>275</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4799,10 +5615,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>186</v>
+        <v>275</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4810,10 +5626,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>187</v>
+        <v>275</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4821,10 +5637,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4832,10 +5648,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4843,10 +5659,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4854,10 +5670,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>191</v>
+        <v>275</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4865,10 +5681,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>192</v>
+        <v>275</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4876,10 +5692,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>193</v>
+        <v>275</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4887,10 +5703,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4898,10 +5714,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4909,10 +5725,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4920,10 +5736,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4931,10 +5747,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4942,10 +5758,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4953,10 +5769,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4964,10 +5780,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4975,10 +5791,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4986,10 +5802,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4997,10 +5813,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5008,10 +5824,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5019,10 +5835,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5030,10 +5846,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5041,10 +5857,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5052,10 +5868,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5063,10 +5879,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5074,10 +5890,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5085,10 +5901,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5096,10 +5912,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5107,10 +5923,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5118,10 +5934,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5129,10 +5945,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5140,10 +5956,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5151,10 +5967,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5162,10 +5978,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5173,10 +5989,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5184,10 +6000,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5195,10 +6011,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5206,10 +6022,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5217,10 +6033,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5228,10 +6044,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5239,10 +6055,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5250,10 +6066,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5261,10 +6077,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5272,10 +6088,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5283,10 +6099,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5294,10 +6110,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5305,10 +6121,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5316,10 +6132,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5327,10 +6143,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5338,10 +6154,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5349,10 +6165,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5360,10 +6176,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5371,10 +6187,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5382,10 +6198,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5393,10 +6209,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5404,10 +6220,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5415,10 +6231,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5426,10 +6242,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5437,10 +6253,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5448,10 +6264,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5459,10 +6275,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5470,10 +6286,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5481,10 +6297,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5492,10 +6308,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5503,10 +6319,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5514,10 +6330,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5525,10 +6341,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5536,7 +6352,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>18</v>

--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF75B1-AE12-461F-B5F0-E1A8C234E065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3868EB-4A50-4C71-B7AD-EEED41A083DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1007,12 +1007,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1020,8 +1014,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1065,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1088,13 +1101,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1114,17 +1129,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1134,14 +1145,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
@@ -1455,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,7 +1590,7 @@
       <c r="B5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
@@ -1590,7 +1616,7 @@
       <c r="B6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
@@ -1616,7 +1642,7 @@
       <c r="B7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="s">
@@ -1642,7 +1668,7 @@
       <c r="B8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
@@ -1668,7 +1694,7 @@
       <c r="B9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D9" t="s">
@@ -1694,7 +1720,7 @@
       <c r="B10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D10" t="s">
@@ -1720,7 +1746,7 @@
       <c r="B11" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D11" t="s">
@@ -1746,7 +1772,7 @@
       <c r="B12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D12" t="s">
@@ -1772,7 +1798,7 @@
       <c r="B13" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="s">
@@ -1798,7 +1824,7 @@
       <c r="B14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
@@ -1824,7 +1850,7 @@
       <c r="B15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D15" t="s">
@@ -1850,7 +1876,7 @@
       <c r="B16" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D16" t="s">
@@ -1876,7 +1902,7 @@
       <c r="B17" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
@@ -1902,7 +1928,7 @@
       <c r="B18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>259</v>
       </c>
       <c r="D18" t="s">
@@ -1928,7 +1954,7 @@
       <c r="B19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>260</v>
       </c>
       <c r="D19" t="s">
@@ -1954,7 +1980,7 @@
       <c r="B20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
@@ -1980,7 +2006,7 @@
       <c r="B21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D21" t="s">
@@ -2006,7 +2032,7 @@
       <c r="B22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D22" t="s">
@@ -2032,7 +2058,7 @@
       <c r="B23" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="s">
@@ -2058,7 +2084,7 @@
       <c r="B24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D24" t="s">
@@ -2084,7 +2110,7 @@
       <c r="B25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D25" t="s">
@@ -2103,554 +2129,554 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:9" s="17" customFormat="1">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:9" s="17" customFormat="1">
+      <c r="A27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:9" s="17" customFormat="1">
+      <c r="A28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:9" s="17" customFormat="1">
+      <c r="A29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:9" s="17" customFormat="1">
+      <c r="A30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:9" s="17" customFormat="1">
+      <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:9" s="17" customFormat="1">
+      <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:9" s="17" customFormat="1">
+      <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:9" s="17" customFormat="1">
+      <c r="A34" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" s="17" customFormat="1">
+      <c r="A35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:9" s="17" customFormat="1">
+      <c r="A36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:9" s="17" customFormat="1">
+      <c r="A37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:9" s="17" customFormat="1">
+      <c r="A38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" s="17" customFormat="1">
+      <c r="A39" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:9" s="17" customFormat="1">
+      <c r="A40" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:9" s="17" customFormat="1">
+      <c r="A41" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:9" s="17" customFormat="1">
+      <c r="A42" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:9" s="17" customFormat="1">
+      <c r="A43" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:9" s="17" customFormat="1">
+      <c r="A44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="18" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2700,7 +2726,7 @@
       <c r="C47" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>300</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2710,523 +2736,523 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:9" s="15" customFormat="1">
+      <c r="A48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="C48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="G48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:9" s="15" customFormat="1">
+      <c r="A49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="C49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="G49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:9" s="15" customFormat="1">
+      <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="C50" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="G50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:9" s="15" customFormat="1">
+      <c r="A51" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="C51" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="G51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:9" s="15" customFormat="1">
+      <c r="A52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="C52" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="G52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:9" s="15" customFormat="1">
+      <c r="A53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="C53" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="G53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:9" s="15" customFormat="1">
+      <c r="A54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="C54" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="G54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:9" s="15" customFormat="1">
+      <c r="A55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="C55" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:9" s="15" customFormat="1">
+      <c r="A56" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="C56" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="G56" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:9" s="15" customFormat="1">
+      <c r="A57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="C57" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="G57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:9" s="15" customFormat="1">
+      <c r="A58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="C58" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="G58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:9" s="15" customFormat="1">
+      <c r="A59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="C59" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="G59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:9" s="15" customFormat="1">
+      <c r="A60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="C60" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="2" t="s">
+      <c r="G60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:9" s="15" customFormat="1">
+      <c r="A61" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="C61" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="2" t="s">
+      <c r="G61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:9" s="15" customFormat="1">
+      <c r="A62" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="C62" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="G62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:9" s="15" customFormat="1">
+      <c r="A63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="C63" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="G63" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:9" s="15" customFormat="1">
+      <c r="A64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="C64" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="2" t="s">
+      <c r="G64" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:9" s="15" customFormat="1">
+      <c r="A65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="C65" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="G65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:9" s="15" customFormat="1">
+      <c r="A66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="C66" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="G66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:9" s="15" customFormat="1">
+      <c r="A67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="C67" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="G67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3235,25 +3261,25 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>266</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3264,7 +3290,7 @@
         <v>306</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>297</v>
@@ -3290,7 +3316,7 @@
         <v>306</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>297</v>
@@ -3316,7 +3342,7 @@
         <v>306</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>297</v>
@@ -3342,7 +3368,7 @@
         <v>306</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>297</v>
@@ -3368,7 +3394,7 @@
         <v>306</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>297</v>
@@ -3394,7 +3420,7 @@
         <v>306</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>297</v>
@@ -3420,7 +3446,7 @@
         <v>306</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>297</v>
@@ -3435,32 +3461,6 @@
         <v>266</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I76" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3472,8 +3472,8 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
     <hyperlink ref="E6:E25" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
     <hyperlink ref="E47" r:id="rId5" xr:uid="{74324830-D9C2-4A33-AE2B-810A7026FEF8}"/>
-    <hyperlink ref="E69" r:id="rId6" xr:uid="{1A5550D4-7564-45EC-9501-0A294E79D7BA}"/>
-    <hyperlink ref="E70:E76" r:id="rId7" display="https://www.springernature.com/gp" xr:uid="{BA6B86D8-DDDD-4BE3-A134-046AD05492F1}"/>
+    <hyperlink ref="E68" r:id="rId6" xr:uid="{1A5550D4-7564-45EC-9501-0A294E79D7BA}"/>
+    <hyperlink ref="E69:E75" r:id="rId7" display="https://www.springernature.com/gp" xr:uid="{BA6B86D8-DDDD-4BE3-A134-046AD05492F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -3484,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205:B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4338,7 +4338,7 @@
       <c r="B77" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       <c r="B78" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
       <c r="B83" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
       <c r="B84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       <c r="B85" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="B86" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       <c r="B95" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       <c r="B96" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       <c r="B98" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       <c r="B100" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
       <c r="B101" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="B102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       <c r="B104" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       <c r="B105" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       <c r="B106" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       <c r="B107" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
       <c r="B109" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="B113" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="B114" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="7" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       <c r="B116" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       <c r="B117" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       <c r="B119" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="B120" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       <c r="B121" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       <c r="B122" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       <c r="B123" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="B124" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       <c r="B125" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       <c r="B126" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       <c r="B127" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       <c r="B128" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       <c r="B129" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="B130" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       <c r="B131" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       <c r="B132" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       <c r="B133" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       <c r="B134" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       <c r="B135" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       <c r="B136" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       <c r="B137" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       <c r="B138" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       <c r="B139" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       <c r="B140" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
       <c r="B141" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="B142" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       <c r="B143" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       <c r="B144" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       <c r="B145" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5372,7 +5372,7 @@
       <c r="B171" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       <c r="B172" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="B173" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       <c r="B174" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       <c r="B175" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       <c r="B176" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       <c r="B177" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       <c r="B181" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="9" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       <c r="B182" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="B183" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5515,10 +5515,10 @@
       <c r="B184" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H184" s="16" t="s">
+      <c r="H184" s="14" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       <c r="B185" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       <c r="B186" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="B189" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C189" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="B190" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       <c r="B192" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       <c r="B193" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C193" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       <c r="B194" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       <c r="B195" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       <c r="B198" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       <c r="B199" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
       <c r="B200" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="9" t="s">
         <v>192</v>
       </c>
     </row>

--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C87F76-D6DE-49DB-ACF6-E8D1277258D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3868EB-4A50-4C71-B7AD-EEED41A083DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
   <si>
     <t>Cartegory</t>
   </si>
@@ -81,45 +81,6 @@
     <t>Session Title</t>
   </si>
   <si>
-    <t>Air, Sea, and Space Robots </t>
-  </si>
-  <si>
-    <t>Driverless Vehicles and Field Robots </t>
-  </si>
-  <si>
-    <t>Medical, Cellular, Micro and Nano Robots </t>
-  </si>
-  <si>
-    <t>Humanoids, Exoskeletons, and Rehab Robots </t>
-  </si>
-  <si>
-    <t>Localization, Mapping and Navigation </t>
-  </si>
-  <si>
-    <t>Dynamics, Control and Learning </t>
-  </si>
-  <si>
-    <t>Design, Mechanisms, Actuators, Soft and Bio-Inspired Robots </t>
-  </si>
-  <si>
-    <t>Grasping, Haptics and End-effectors </t>
-  </si>
-  <si>
-    <t>Perception, Action, and Cognition </t>
-  </si>
-  <si>
-    <t>Human-Robot Interaction, Teleoperation, and VR </t>
-  </si>
-  <si>
-    <t>Swarms and Multi-Robots </t>
-  </si>
-  <si>
-    <t>Industry 4.0 </t>
-  </si>
-  <si>
-    <t>https://www.naverlabs.com/</t>
-  </si>
-  <si>
     <t>AI and Learning for Autonomous Driving Applications</t>
   </si>
   <si>
@@ -633,9 +594,6 @@
     <t>Sensor-based Estimation</t>
   </si>
   <si>
-    <t>3D model learning</t>
-  </si>
-  <si>
     <t>Cognitive Control Architectures</t>
   </si>
   <si>
@@ -723,9 +681,6 @@
     <t>Tactile Sensing II</t>
   </si>
   <si>
-    <t>Brain-Machine interfaces for Human Robot Interaction</t>
-  </si>
-  <si>
     <t>Cognitive Human Robot Interaction</t>
   </si>
   <si>
@@ -822,9 +777,6 @@
     <t>Sim-to-Real</t>
   </si>
   <si>
-    <t>Robot Computation - Hardware, software, datasets</t>
-  </si>
-  <si>
     <t>Aerial Systems - Mechanics and Control I</t>
   </si>
   <si>
@@ -888,9 +840,6 @@
     <t>mp4</t>
   </si>
   <si>
-    <t>YouTube</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -903,41 +852,128 @@
     <t>Webpage Link</t>
   </si>
   <si>
-    <t>Samsung</t>
+    <t>tpP0eTF8QXM</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Localization, Mapping and Navigation</t>
+  </si>
+  <si>
+    <t>Perception, Action, and Cognition</t>
+  </si>
+  <si>
+    <t>NAVER LABS</t>
+  </si>
+  <si>
+    <t>Brain-Machine Interfaces for Human Robot Interaction</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Robotis</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>mylist</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>https://sra.samsung.com/join-us</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>The Samsung AI Center New York is researching advanced robotic manipulation and perception. The Center collaborates with global Samsung research centers along with leading academic groups.</t>
+  </si>
+  <si>
+    <t>NAVER LABS creates new connections between people, machines, spaces and information by advancing technology in AI, robotics, autonomous driving, 3D/HD mapping and AR.</t>
+  </si>
+  <si>
+    <t>https://www.naverlabs.com/en/</t>
+  </si>
+  <si>
+    <t>Driverless Vehicles and Field Robots</t>
+  </si>
+  <si>
+    <t>Air, Sea, and Space Robots</t>
+  </si>
+  <si>
+    <t>Medical, Cellular, Micro and Nano Robots</t>
+  </si>
+  <si>
+    <t>Humanoids, Exoskeletons, and Rehab Robots</t>
+  </si>
+  <si>
+    <t>Dynamics, Control and Learning</t>
+  </si>
+  <si>
+    <t>Design, Mechanisms, Actuators, Soft and Bio-Inspired Robots</t>
+  </si>
+  <si>
+    <t>Grasping, Haptics and End-effectors</t>
+  </si>
+  <si>
+    <t>Human-Robot Interaction, Teleoperation, and VR</t>
+  </si>
+  <si>
+    <t>Swarms and Multi-Robots</t>
+  </si>
+  <si>
+    <t>Industry 4.0</t>
   </si>
   <si>
     <t>3D Model Learning</t>
   </si>
   <si>
-    <t>tpP0eTF8QXM</t>
-  </si>
-  <si>
-    <t>https://research.samsung.com/</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>Activity Recognition</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>Localization, Mapping and Navigation</t>
-  </si>
-  <si>
-    <t>Perception, Action, and Cognition</t>
-  </si>
-  <si>
-    <t>Naver Labs</t>
+    <t>UMN</t>
+  </si>
+  <si>
+    <t>https://cse.umn.edu/mnri</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>Rainbow Robotics focuses on providing more convenient and productive working environment by building robots that can coexist &amp; cooperate with people across various fields.</t>
+  </si>
+  <si>
+    <t>http://www.rainbow-robotics.com/new/</t>
+  </si>
+  <si>
+    <t>Rainbow Robotics</t>
+  </si>
+  <si>
+    <t>AAAS</t>
+  </si>
+  <si>
+    <t>Springer Nature</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Sed pretium ut risus sed bibendum. Duis vel faucibus orci. Fusce viverra nisl leo, quis iaculis urna.</t>
+  </si>
+  <si>
+    <t>https://www.springernature.com/gp</t>
+  </si>
+  <si>
+    <t>Robot Computation - Hardware, Software, Datasets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,8 +1006,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,12 +1032,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -993,12 +1085,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,10 +1132,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1358,7 +1503,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1369,22 +1514,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1392,1068 +1540,1952 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
         <v>274</v>
       </c>
-      <c r="D12" t="s">
-        <v>295</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>102</v>
+        <v>276</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>103</v>
+        <v>276</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>105</v>
+        <v>276</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>108</v>
+        <v>276</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>276</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
+        <v>276</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>111</v>
+        <v>276</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="7" t="s">
         <v>276</v>
       </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>119</v>
+        <v>276</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>120</v>
+        <v>276</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="17" customFormat="1">
+      <c r="A26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="17" customFormat="1">
+      <c r="A27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="17" customFormat="1">
+      <c r="A28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="17" customFormat="1">
+      <c r="A29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="17" customFormat="1">
+      <c r="A30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="17" customFormat="1">
+      <c r="A31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="17" customFormat="1">
+      <c r="A32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="17" customFormat="1">
+      <c r="A33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="17" customFormat="1">
+      <c r="A34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="17" customFormat="1">
+      <c r="A35" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="17" customFormat="1">
+      <c r="A36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="17" customFormat="1">
+      <c r="A37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="17" customFormat="1">
+      <c r="A38" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="17" customFormat="1">
+      <c r="A39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="17" customFormat="1">
+      <c r="A40" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="17" customFormat="1">
+      <c r="A41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="17" customFormat="1">
+      <c r="A42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="17" customFormat="1">
+      <c r="A43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="17" customFormat="1">
+      <c r="A44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="15" customFormat="1">
+      <c r="A48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="15" customFormat="1">
+      <c r="A49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="15" customFormat="1">
+      <c r="A50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="15" customFormat="1">
+      <c r="A51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="15" customFormat="1">
+      <c r="A52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="15" customFormat="1">
+      <c r="A53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="15" customFormat="1">
+      <c r="A54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="15" customFormat="1">
+      <c r="A55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="15" customFormat="1">
+      <c r="A56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="15" customFormat="1">
+      <c r="A57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="15" customFormat="1">
+      <c r="A58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="15" customFormat="1">
+      <c r="A59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="15" customFormat="1">
+      <c r="A60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="15" customFormat="1">
+      <c r="A61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="15" customFormat="1">
+      <c r="A62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="15" customFormat="1">
+      <c r="A63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="15" customFormat="1">
+      <c r="A64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="15" customFormat="1">
+      <c r="A65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="15" customFormat="1">
+      <c r="A66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="15" customFormat="1">
+      <c r="A67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E68" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="E69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" t="s">
-        <v>296</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" t="s">
-        <v>296</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" t="s">
-        <v>296</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" t="s">
-        <v>296</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="3"/>
+      <c r="B75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{589B9A23-2A87-4B39-9EFD-EDB866ADC4EA}"/>
-    <hyperlink ref="E27:E44" r:id="rId2" display="https://research.samsung.com/" xr:uid="{1E0F924F-EC03-41E3-BC27-F321B2D43E6A}"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{18CE1D62-48D9-40C4-8B4C-D7E637884519}"/>
+    <hyperlink ref="E27:E44" r:id="rId2" display="https://sra.samsung.com/join-us" xr:uid="{48B970DD-5117-406D-8631-B85102C47648}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
+    <hyperlink ref="E6:E25" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
+    <hyperlink ref="E47" r:id="rId5" xr:uid="{74324830-D9C2-4A33-AE2B-810A7026FEF8}"/>
+    <hyperlink ref="E68" r:id="rId6" xr:uid="{1A5550D4-7564-45EC-9501-0A294E79D7BA}"/>
+    <hyperlink ref="E69:E75" r:id="rId7" display="https://www.springernature.com/gp" xr:uid="{BA6B86D8-DDDD-4BE3-A134-046AD05492F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205:B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,1038 +3506,1038 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>93</v>
+        <v>274</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>94</v>
+        <v>274</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>95</v>
+        <v>274</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>97</v>
+        <v>274</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>274</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>99</v>
+        <v>274</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>274</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>274</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="7" t="s">
         <v>274</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>102</v>
+        <v>274</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>103</v>
+        <v>274</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>105</v>
+        <v>274</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>274</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3513,1824 +4545,1826 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>108</v>
+        <v>274</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>109</v>
+        <v>274</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>110</v>
+        <v>274</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>111</v>
+        <v>274</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>113</v>
+        <v>274</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>114</v>
+        <v>274</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>274</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>274</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>119</v>
+        <v>274</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>120</v>
+        <v>274</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>121</v>
+        <v>274</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>274</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>274</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>127</v>
+        <v>274</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1">
+        <v>292</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1">
+        <v>275</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" hidden="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C260" xr:uid="{1B8703AA-0DCD-40E4-945C-71786370758E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Localization, Mapping and Navigation "/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:C118">
+      <sortCondition ref="C77"/>
+    </sortState>
   </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3868EB-4A50-4C71-B7AD-EEED41A083DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60995A16-C777-4CB8-B948-F1EB6BDD8036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F4E5218A-52D5-48FD-87E4-9D3B129481B2}</author>
+  </authors>
+  <commentList>
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{F4E5218A-52D5-48FD-87E4-9D3B129481B2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Possibly TRI</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9B044D39-3BD2-4F8F-9C8E-47FE7960C55B}</author>
+    <author>tc={671F7419-A52E-424E-A755-E787338C2BA0}</author>
+    <author>tc={C6EF4B6F-C551-45AD-8BDC-513B13E3BA56}</author>
+    <author>tc={AE76E5EC-F2E2-4766-B295-A94FD7C90607}</author>
+    <author>tc={4613D1F3-A86D-4F11-AD6A-6138D12109A7}</author>
+    <author>tc={A0AEF4C5-F694-4F23-BD88-D3FC3564FAA7}</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{9B044D39-3BD2-4F8F-9C8E-47FE7960C55B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Possibly TRI</t>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="1" shapeId="0" xr:uid="{671F7419-A52E-424E-A755-E787338C2BA0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    UBTech</t>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="2" shapeId="0" xr:uid="{C6EF4B6F-C551-45AD-8BDC-513B13E3BA56}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    naverlabs</t>
+      </text>
+    </comment>
+    <comment ref="C171" authorId="3" shapeId="0" xr:uid="{AE76E5EC-F2E2-4766-B295-A94FD7C90607}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Samsung</t>
+      </text>
+    </comment>
+    <comment ref="C205" authorId="4" shapeId="0" xr:uid="{4613D1F3-A86D-4F11-AD6A-6138D12109A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rainbow Robotics</t>
+      </text>
+    </comment>
+    <comment ref="C253" authorId="5" shapeId="0" xr:uid="{A0AEF4C5-F694-4F23-BD88-D3FC3564FAA7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Springer Nature fornow</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="346">
   <si>
     <t>Cartegory</t>
   </si>
@@ -855,9 +936,6 @@
     <t>tpP0eTF8QXM</t>
   </si>
   <si>
-    <t>TRI</t>
-  </si>
-  <si>
     <t>Theme</t>
   </si>
   <si>
@@ -942,38 +1020,149 @@
     <t>https://cse.umn.edu/mnri</t>
   </si>
   <si>
-    <t>mp3</t>
-  </si>
-  <si>
-    <t>Rainbow Robotics focuses on providing more convenient and productive working environment by building robots that can coexist &amp; cooperate with people across various fields.</t>
-  </si>
-  <si>
     <t>http://www.rainbow-robotics.com/new/</t>
   </si>
   <si>
     <t>Rainbow Robotics</t>
   </si>
   <si>
-    <t>AAAS</t>
-  </si>
-  <si>
-    <t>Springer Nature</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Sed pretium ut risus sed bibendum. Duis vel faucibus orci. Fusce viverra nisl leo, quis iaculis urna.</t>
-  </si>
-  <si>
-    <t>https://www.springernature.com/gp</t>
-  </si>
-  <si>
     <t>Robot Computation - Hardware, Software, Datasets</t>
+  </si>
+  <si>
+    <t>https://www.tri.global/</t>
+  </si>
+  <si>
+    <t>https://www.intuitive.com/en-us</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Independent Robotics</t>
+  </si>
+  <si>
+    <t>Science Robotics</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>https://www.independentrobotics.com/</t>
+  </si>
+  <si>
+    <t>https://pal-robotics.com/</t>
+  </si>
+  <si>
+    <t>https://robotics.sciencemag.org/</t>
+  </si>
+  <si>
+    <t>PAL Robotics</t>
+  </si>
+  <si>
+    <t>MnRI puts students first, with over 50% of Master's in Robotics students receiving financial support for a world-class robotics education. Apply for Spring 2021 at z.umn.edu/MSRobotics.</t>
+  </si>
+  <si>
+    <t>KUKA</t>
+  </si>
+  <si>
+    <t>https://www.kuka.com/en-us</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Science for Robotics and Robotics for Science, As a multidisciplinary online-only journal, Science Robotics publishes original, peer-reviewed, research articles that advance the field of robotics.</t>
+  </si>
+  <si>
+    <t>Toyota Research Institute</t>
+  </si>
+  <si>
+    <t>IROS2021</t>
+  </si>
+  <si>
+    <t>IROS2022</t>
+  </si>
+  <si>
+    <t>Award Finalists</t>
+  </si>
+  <si>
+    <t>Finalists for Best Agri-robotics Paper</t>
+  </si>
+  <si>
+    <t>Finalists for Best Application Paper</t>
+  </si>
+  <si>
+    <t>Finalists for Best Entertainment and Amusement Paper</t>
+  </si>
+  <si>
+    <t>Finalists for Best Paper Award</t>
+  </si>
+  <si>
+    <t>Finalists for Best Paper in Cognitive Robotics</t>
+  </si>
+  <si>
+    <t>Finalists for Best Paper on Robot Mechanism and Design</t>
+  </si>
+  <si>
+    <t>Finalists for Best Paper on Safety, Security, and Rescue Robotics in memory of Motohiro Kisoi</t>
+  </si>
+  <si>
+    <t>Finalists for Best RoboCup Paper</t>
+  </si>
+  <si>
+    <t>Finalists for Best Students Paper</t>
+  </si>
+  <si>
+    <t>Independent Robotics builds distributed platforms that acquire and process data in dangerous and difficult environments such as underwater, in extreme temperatures or including hazardous waste</t>
+  </si>
+  <si>
+    <t>Intuitive, maker of the da Vinci surgical system and Ion endoluminal system, was founded with a simple belief: Medical intervention should help people recover as quickly and completely as possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience our collaborative robot RB series user-friendly, accurate and reliable. Rainbow Robotics, the first place in 2015 DARPA Robotics Challenge, always develops &amp; provides robots with the best in cost-effectiveness.  </t>
+  </si>
+  <si>
+    <t>We are honoured to host IROS2021! We invite you to come and enjoy the very special location of a flagship robotic conference in Prague, Czech Republic.</t>
+  </si>
+  <si>
+    <t>https://iros2021.org</t>
+  </si>
+  <si>
+    <t>Toyota Research Institute is developing active safety and automated driving technologies, robotics, and other human amplification capabilities for Toyota. See below for more information on U.S.-based TRI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.science/conferences-and-events/iros-2020?utm_campaign=events2020&amp;utm_medium=recruiting&amp;utm_source=collat&amp;utm_content=event_page&amp;utm_term=iros</t>
+  </si>
+  <si>
+    <t>As a leading global supplier of intelligent automation solutions KUKA offers its customers everything from a single source: from robots and cells to fully automated systems.</t>
+  </si>
+  <si>
+    <t>Our mission is to enhance people’s quality of life through service robotics and automation technologies. Since 2004, we develop state-of-the-art robots designed to solve your needs</t>
+  </si>
+  <si>
+    <t>ROBOTIS is a worldwide provider of service robot solutions and a leading manufacturer of smart servos (DYNAMIXELs), K-16 STEM edutainment kits, open-source robotics with ROS (TurtleBot3) and more.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSeBbab7STI3UdYWFNdB6XEav4fmH5P_GlREdrHrLLou2dS-kg/viewform</t>
+  </si>
+  <si>
+    <t>https://developer.nvidia.com/embedded/jetson-modules</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>At Amazon we fundamentally believe that scientific innovation is essential to being the most customer-centric company in the world. It's this ability to have an impact at scale that allows us to attract some of the brightest minds in robotics. Come and build the future with us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,8 +1211,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,18 +1274,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -1076,8 +1283,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1100,16 +1329,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,33 +1386,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="Calculation" xfId="7" builtinId="22"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,6 +1448,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kim DongBin" id="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" userId="9a34357996069180" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,2013 +1751,4015 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D92" dT="2020-10-19T07:39:26.86" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{F4E5218A-52D5-48FD-87E4-9D3B129481B2}">
+    <text>Possibly TRI</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C22" dT="2020-10-19T07:39:26.86" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{9B044D39-3BD2-4F8F-9C8E-47FE7960C55B}">
+    <text>Possibly TRI</text>
+  </threadedComment>
+  <threadedComment ref="C56" dT="2020-10-23T17:59:34.86" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{671F7419-A52E-424E-A755-E787338C2BA0}">
+    <text>UBTech</text>
+  </threadedComment>
+  <threadedComment ref="C77" dT="2020-10-19T07:38:27.53" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{C6EF4B6F-C551-45AD-8BDC-513B13E3BA56}">
+    <text>naverlabs</text>
+  </threadedComment>
+  <threadedComment ref="C171" dT="2020-10-19T07:39:06.95" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{AE76E5EC-F2E2-4766-B295-A94FD7C90607}">
+    <text>Samsung</text>
+  </threadedComment>
+  <threadedComment ref="C205" dT="2020-10-19T07:39:45.19" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{4613D1F3-A86D-4F11-AD6A-6138D12109A7}">
+    <text>Rainbow Robotics</text>
+  </threadedComment>
+  <threadedComment ref="C253" dT="2020-10-19T07:39:58.40" personId="{ABD2A7EA-E980-4CA1-869A-F1555CFF38D3}" id="{A0AEF4C5-F694-4F23-BD88-D3FC3564FAA7}">
+    <text>Springer Nature fornow</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="59.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="59.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1">
+      <c r="A27" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J27" s="23" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="28" spans="1:10" s="14" customFormat="1">
+      <c r="A28" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1">
+      <c r="A29" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1">
+      <c r="A30" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1">
+      <c r="A31" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1">
+      <c r="A32" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1">
+      <c r="A33" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1">
+      <c r="A34" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="14" customFormat="1">
+      <c r="A35" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1">
+      <c r="A36" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1">
+      <c r="A37" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1">
+      <c r="A38" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1">
+      <c r="A39" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1">
+      <c r="A40" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1">
+      <c r="A41" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1">
+      <c r="A42" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1">
+      <c r="A43" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1">
+      <c r="A44" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1">
+      <c r="A45" s="14">
+        <v>20005</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="12" customFormat="1">
+      <c r="A50" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="12" customFormat="1">
+      <c r="A51" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="12" customFormat="1">
+      <c r="A52" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="12" customFormat="1">
+      <c r="A53" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="12" customFormat="1">
+      <c r="A54" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="12" customFormat="1">
+      <c r="A55" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="12" customFormat="1">
+      <c r="A56" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="12" customFormat="1">
+      <c r="A57" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="12" customFormat="1">
+      <c r="A58" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="12" customFormat="1">
+      <c r="A59" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="12" customFormat="1">
+      <c r="A60" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="12" customFormat="1">
+      <c r="A61" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="12" customFormat="1">
+      <c r="A62" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="12" customFormat="1">
+      <c r="A63" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="12" customFormat="1">
+      <c r="A64" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="12" customFormat="1">
+      <c r="A65" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="12" customFormat="1">
+      <c r="A66" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="12" customFormat="1">
+      <c r="A67" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="12" customFormat="1">
+      <c r="A68" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="12" customFormat="1">
+      <c r="A69" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" t="s">
+        <v>309</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J82" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J84" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J125" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J126" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J128" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J131" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J132" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J134" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J135" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J139" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J141" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J143" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="17" customFormat="1">
-      <c r="A26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="17" customFormat="1">
-      <c r="A27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="17" customFormat="1">
-      <c r="A28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="17" customFormat="1">
-      <c r="A29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="17" customFormat="1">
-      <c r="A30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="17" customFormat="1">
-      <c r="A31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="17" customFormat="1">
-      <c r="A32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="17" customFormat="1">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="17" customFormat="1">
-      <c r="A34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="17" customFormat="1">
-      <c r="A35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="17" customFormat="1">
-      <c r="A36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="17" customFormat="1">
-      <c r="A37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="17" customFormat="1">
-      <c r="A38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="17" customFormat="1">
-      <c r="A39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="17" customFormat="1">
-      <c r="A40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="17" customFormat="1">
-      <c r="A41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="17" customFormat="1">
-      <c r="A42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="17" customFormat="1">
-      <c r="A43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="17" customFormat="1">
-      <c r="A44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="15" customFormat="1">
-      <c r="A48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="15" customFormat="1">
-      <c r="A49" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="15" customFormat="1">
-      <c r="A50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="15" customFormat="1">
-      <c r="A51" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="15" customFormat="1">
-      <c r="A52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="15" customFormat="1">
-      <c r="A53" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="15" customFormat="1">
-      <c r="A54" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="15" customFormat="1">
-      <c r="A55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="15" customFormat="1">
-      <c r="A56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="15" customFormat="1">
-      <c r="A57" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="15" customFormat="1">
-      <c r="A58" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="15" customFormat="1">
-      <c r="A59" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="15" customFormat="1">
-      <c r="A60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="15" customFormat="1">
-      <c r="A61" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="15" customFormat="1">
-      <c r="A62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="15" customFormat="1">
-      <c r="A63" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="15" customFormat="1">
-      <c r="A64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="15" customFormat="1">
-      <c r="A65" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="15" customFormat="1">
-      <c r="A66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="15" customFormat="1">
-      <c r="A67" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J144" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{18CE1D62-48D9-40C4-8B4C-D7E637884519}"/>
-    <hyperlink ref="E27:E44" r:id="rId2" display="https://sra.samsung.com/join-us" xr:uid="{48B970DD-5117-406D-8631-B85102C47648}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
-    <hyperlink ref="E6:E25" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
-    <hyperlink ref="E47" r:id="rId5" xr:uid="{74324830-D9C2-4A33-AE2B-810A7026FEF8}"/>
-    <hyperlink ref="E68" r:id="rId6" xr:uid="{1A5550D4-7564-45EC-9501-0A294E79D7BA}"/>
-    <hyperlink ref="E69:E75" r:id="rId7" display="https://www.springernature.com/gp" xr:uid="{BA6B86D8-DDDD-4BE3-A134-046AD05492F1}"/>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{18CE1D62-48D9-40C4-8B4C-D7E637884519}"/>
+    <hyperlink ref="F28:F45" r:id="rId2" display="https://sra.samsung.com/join-us" xr:uid="{48B970DD-5117-406D-8631-B85102C47648}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{5A06FBE2-70F6-4134-A276-3D72E9592397}"/>
+    <hyperlink ref="F7:F26" r:id="rId4" display="https://www.naverlabs.com/en/" xr:uid="{C47DF8F8-EF59-497B-918C-58348C586C97}"/>
+    <hyperlink ref="F48" r:id="rId5" xr:uid="{74324830-D9C2-4A33-AE2B-810A7026FEF8}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{B6616F4E-9EBA-4C08-B7DC-9937CA633395}"/>
+    <hyperlink ref="F47" r:id="rId7" xr:uid="{082BCDEF-1673-4F21-997F-E063431DCAA1}"/>
+    <hyperlink ref="F72" r:id="rId8" xr:uid="{909EFC45-DAAF-479A-95CF-70404BB1EC38}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{D77482EE-2568-463B-AE48-79639E84661C}"/>
+    <hyperlink ref="F73" r:id="rId10" xr:uid="{C5651E59-6503-47A9-B727-184C37442C47}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
+    <hyperlink ref="F92" r:id="rId12" xr:uid="{B7001163-C82F-4034-94EC-C78A6A60617E}"/>
+    <hyperlink ref="F93:F110" r:id="rId13" display="https://www.tri.global/" xr:uid="{48ED4A96-185C-4C6D-ACF4-4C6B83EDDC9A}"/>
+    <hyperlink ref="F112" r:id="rId14" xr:uid="{EEBB1F8D-87FE-43FA-B691-149C1B61F50B}"/>
+    <hyperlink ref="F113:F120" r:id="rId15" display="https://iros2021.org" xr:uid="{0341DB0A-8136-4537-8189-F07DC8DC9A36}"/>
+    <hyperlink ref="F46" r:id="rId16" xr:uid="{B8127B5E-72D6-4430-B840-CF6FECE02181}"/>
+    <hyperlink ref="F50" r:id="rId17" xr:uid="{3AAF3E8A-6255-45B0-B677-CA6ABC2BFEEF}"/>
+    <hyperlink ref="F49" r:id="rId18" xr:uid="{92F087A9-A4FF-44EE-B0DF-9D977F98B356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205:B224"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3511,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -3522,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3533,7 +5807,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -3544,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -3555,7 +5829,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>246</v>
@@ -3566,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>247</v>
@@ -3577,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>248</v>
@@ -3588,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -3599,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3610,7 +5884,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -3621,7 +5895,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -3632,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -3643,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -3654,7 +5928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -3665,7 +5939,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -3676,7 +5950,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -3687,7 +5961,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -3698,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -3709,7 +5983,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -3720,7 +5994,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -3731,9 +6005,9 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3742,9 +6016,9 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3753,9 +6027,9 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3764,9 +6038,9 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3775,9 +6049,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3786,9 +6060,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3797,9 +6071,9 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3808,9 +6082,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3819,9 +6093,9 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3830,9 +6104,9 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3841,9 +6115,9 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3852,9 +6126,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3863,9 +6137,9 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3874,9 +6148,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3885,9 +6159,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3896,9 +6170,9 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3907,9 +6181,9 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3918,9 +6192,9 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3929,9 +6203,9 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3940,9 +6214,9 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3951,9 +6225,9 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3962,9 +6236,9 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3973,9 +6247,9 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3984,9 +6258,9 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3995,9 +6269,9 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4006,9 +6280,9 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4017,183 +6291,184 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>70</v>
@@ -4204,7 +6479,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -4215,7 +6490,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -4226,7 +6501,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
@@ -4237,7 +6512,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>71</v>
@@ -4248,7 +6523,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
@@ -4259,7 +6534,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>73</v>
@@ -4270,7 +6545,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>74</v>
@@ -4281,7 +6556,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>75</v>
@@ -4292,7 +6567,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>76</v>
@@ -4303,7 +6578,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>77</v>
@@ -4314,7 +6589,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>78</v>
@@ -4325,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>79</v>
@@ -4336,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>93</v>
@@ -4347,7 +6622,7 @@
         <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>94</v>
@@ -4358,7 +6633,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>264</v>
@@ -4369,7 +6644,7 @@
         <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>103</v>
@@ -4380,7 +6655,7 @@
         <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>104</v>
@@ -4391,7 +6666,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>105</v>
@@ -4402,7 +6677,7 @@
         <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>259</v>
@@ -4413,7 +6688,7 @@
         <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>260</v>
@@ -4424,7 +6699,7 @@
         <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>111</v>
@@ -4435,7 +6710,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>86</v>
@@ -4446,7 +6721,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>87</v>
@@ -4457,7 +6732,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>88</v>
@@ -4468,7 +6743,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>89</v>
@@ -4479,7 +6754,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
@@ -4490,7 +6765,7 @@
         <v>111</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>109</v>
@@ -4501,7 +6776,7 @@
         <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>106</v>
@@ -4512,7 +6787,7 @@
         <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>107</v>
@@ -4523,7 +6798,7 @@
         <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>108</v>
@@ -4534,7 +6809,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>100</v>
@@ -4545,7 +6820,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>95</v>
@@ -4556,7 +6831,7 @@
         <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>112</v>
@@ -4567,7 +6842,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>113</v>
@@ -4578,7 +6853,7 @@
         <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>85</v>
@@ -4589,7 +6864,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>114</v>
@@ -4600,7 +6875,7 @@
         <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>115</v>
@@ -4611,7 +6886,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>101</v>
@@ -4622,7 +6897,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>91</v>
@@ -4633,7 +6908,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>102</v>
@@ -4644,7 +6919,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>92</v>
@@ -4655,7 +6930,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>84</v>
@@ -4666,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>83</v>
@@ -4677,7 +6952,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>110</v>
@@ -4688,7 +6963,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>96</v>
@@ -4699,7 +6974,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>97</v>
@@ -4710,7 +6985,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>98</v>
@@ -4721,7 +6996,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>99</v>
@@ -4732,7 +7007,7 @@
         <v>86</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>256</v>
@@ -4743,7 +7018,7 @@
         <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>257</v>
@@ -4754,7 +7029,7 @@
         <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>258</v>
@@ -4765,7 +7040,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>80</v>
@@ -4776,7 +7051,7 @@
         <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>81</v>
@@ -4787,7 +7062,7 @@
         <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>82</v>
@@ -4798,9 +7073,9 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C119" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4809,9 +7084,9 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C120" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4820,9 +7095,9 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C121" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4831,9 +7106,9 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C122" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4842,9 +7117,9 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C123" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4853,9 +7128,9 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C124" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4864,9 +7139,9 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4875,9 +7150,9 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C126" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4886,9 +7161,9 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C127" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4897,9 +7172,9 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C128" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4908,9 +7183,9 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4919,9 +7194,9 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C130" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4930,9 +7205,9 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C131" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4941,9 +7216,9 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C132" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4952,9 +7227,9 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C133" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4963,9 +7238,9 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C134" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4974,9 +7249,9 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C135" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4985,9 +7260,9 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4996,9 +7271,9 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5007,9 +7282,9 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C138" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5018,9 +7293,9 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C139" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5029,9 +7304,9 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C140" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5040,9 +7315,9 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C141" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5051,9 +7326,9 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C142" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5062,9 +7337,9 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C143" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5073,9 +7348,9 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C144" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5084,9 +7359,9 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5095,7 +7370,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>251</v>
@@ -5106,7 +7381,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>252</v>
@@ -5117,7 +7392,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>143</v>
@@ -5128,7 +7403,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>144</v>
@@ -5139,7 +7414,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>145</v>
@@ -5150,7 +7425,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>253</v>
@@ -5161,7 +7436,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>146</v>
@@ -5172,7 +7447,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>147</v>
@@ -5183,7 +7458,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>148</v>
@@ -5194,7 +7469,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>149</v>
@@ -5205,7 +7480,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>150</v>
@@ -5216,7 +7491,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>151</v>
@@ -5227,7 +7502,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>152</v>
@@ -5238,7 +7513,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>153</v>
@@ -5249,7 +7524,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>154</v>
@@ -5260,7 +7535,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>155</v>
@@ -5271,7 +7546,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>156</v>
@@ -5282,7 +7557,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>157</v>
@@ -5293,7 +7568,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>158</v>
@@ -5304,7 +7579,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>159</v>
@@ -5315,7 +7590,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>261</v>
@@ -5326,7 +7601,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>160</v>
@@ -5337,7 +7612,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>161</v>
@@ -5348,7 +7623,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>162</v>
@@ -5359,7 +7634,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>163</v>
@@ -5370,7 +7645,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>164</v>
@@ -5381,7 +7656,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>165</v>
@@ -5392,7 +7667,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>166</v>
@@ -5403,7 +7678,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>167</v>
@@ -5414,7 +7689,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>168</v>
@@ -5425,7 +7700,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>169</v>
@@ -5436,7 +7711,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>170</v>
@@ -5447,7 +7722,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>171</v>
@@ -5458,7 +7733,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>172</v>
@@ -5469,7 +7744,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>173</v>
@@ -5480,7 +7755,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>174</v>
@@ -5491,7 +7766,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>175</v>
@@ -5502,7 +7777,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>176</v>
@@ -5513,21 +7788,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H184" s="14" t="s">
-        <v>305</v>
-      </c>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>178</v>
@@ -5538,7 +7811,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>179</v>
@@ -5549,7 +7822,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>180</v>
@@ -5560,7 +7833,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>181</v>
@@ -5571,9 +7844,9 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C189" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5582,7 +7855,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>183</v>
@@ -5593,7 +7866,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>184</v>
@@ -5604,10 +7877,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5615,9 +7888,9 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C193" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5626,7 +7899,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>186</v>
@@ -5637,7 +7910,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>187</v>
@@ -5648,7 +7921,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>188</v>
@@ -5659,7 +7932,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>189</v>
@@ -5670,7 +7943,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>190</v>
@@ -5681,9 +7954,9 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C199" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5692,7 +7965,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>192</v>
@@ -5703,7 +7976,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>193</v>
@@ -5714,7 +7987,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>194</v>
@@ -5725,7 +7998,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>195</v>
@@ -5736,7 +8009,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>196</v>
@@ -5747,9 +8020,9 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C205" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5758,9 +8031,9 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C206" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C206" s="17" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5769,9 +8042,9 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C207" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C207" s="17" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5780,9 +8053,9 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C208" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5791,9 +8064,9 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C209" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="17" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5802,9 +8075,9 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C210" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C210" s="17" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5813,9 +8086,9 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C211" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C211" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5824,9 +8097,9 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C212" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C212" s="17" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5835,9 +8108,9 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C213" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C213" s="17" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5846,9 +8119,9 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C214" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="17" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5857,9 +8130,9 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C215" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" s="17" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5868,9 +8141,9 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C216" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5879,9 +8152,9 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C217" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5890,9 +8163,9 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C218" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5901,9 +8174,9 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C219" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C219" s="17" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5912,9 +8185,9 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C220" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C220" s="17" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5923,9 +8196,9 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C221" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C221" s="17" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5934,9 +8207,9 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C222" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C222" s="17" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5945,9 +8218,9 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C223" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C223" s="17" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5956,9 +8229,9 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C224" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C224" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5967,10 +8240,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5978,7 +8251,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>214</v>
@@ -5989,7 +8262,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>215</v>
@@ -6000,7 +8273,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>216</v>
@@ -6011,7 +8284,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>217</v>
@@ -6022,7 +8295,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>218</v>
@@ -6033,7 +8306,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>219</v>
@@ -6044,7 +8317,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>220</v>
@@ -6055,7 +8328,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>221</v>
@@ -6066,7 +8339,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>222</v>
@@ -6077,7 +8350,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>223</v>
@@ -6088,7 +8361,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>224</v>
@@ -6099,7 +8372,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>225</v>
@@ -6110,7 +8383,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>226</v>
@@ -6121,7 +8394,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>227</v>
@@ -6132,7 +8405,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>228</v>
@@ -6143,7 +8416,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>229</v>
@@ -6154,7 +8427,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>230</v>
@@ -6165,7 +8438,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>231</v>
@@ -6176,7 +8449,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>232</v>
@@ -6187,7 +8460,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>233</v>
@@ -6198,7 +8471,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>234</v>
@@ -6209,7 +8482,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>255</v>
@@ -6220,7 +8493,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>235</v>
@@ -6231,7 +8504,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>236</v>
@@ -6242,7 +8515,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>237</v>
@@ -6253,7 +8526,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>238</v>
@@ -6264,7 +8537,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>239</v>
@@ -6275,9 +8548,9 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C253" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C253" s="18" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6286,9 +8559,9 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C254" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C254" s="18" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6297,9 +8570,9 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C255" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C255" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6308,9 +8581,9 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C256" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C256" s="18" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6319,9 +8592,9 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C257" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6330,9 +8603,9 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C258" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C258" s="18" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6341,10 +8614,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6352,9 +8625,9 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C260" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6366,5 +8639,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60995A16-C777-4CB8-B948-F1EB6BDD8036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D6DA1-0753-4F63-BF0C-78C382F40CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="349">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1155,7 +1155,16 @@
     <t>At Amazon we fundamentally believe that scientific innovation is essential to being the most customer-centric company in the world. It's this ability to have an impact at scale that allows us to attract some of the brightest minds in robotics. Come and build the future with us!</t>
   </si>
   <si>
-    <t xml:space="preserve">              </t>
+    <t>NVIDIA is enabling the next generation of Autonomous Machines. From manufacturing, retail, logistics, agriculture, health care and beyond, developers are creating breakthrough Robotics and AI applications on the NVIDIA Jetson platform.</t>
+  </si>
+  <si>
+    <t>EAI Technology</t>
+  </si>
+  <si>
+    <t>EAI Technology is a professional LiDAR sensor brand worldwide. YDLIDAR is committed to LiDAR applications in AI robotics education</t>
+  </si>
+  <si>
+    <t>https://www.ydlidar.com/</t>
   </si>
 </sst>
 </file>
@@ -1786,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3923,6 +3932,29 @@
         <v>339</v>
       </c>
     </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>20004</v>
@@ -5747,10 +5779,11 @@
     <hyperlink ref="F46" r:id="rId16" xr:uid="{B8127B5E-72D6-4430-B840-CF6FECE02181}"/>
     <hyperlink ref="F50" r:id="rId17" xr:uid="{3AAF3E8A-6255-45B0-B677-CA6ABC2BFEEF}"/>
     <hyperlink ref="F49" r:id="rId18" xr:uid="{92F087A9-A4FF-44EE-B0DF-9D977F98B356}"/>
+    <hyperlink ref="F74" r:id="rId19" xr:uid="{49937CE6-E8D5-4157-A59D-3DF456C32564}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D6DA1-0753-4F63-BF0C-78C382F40CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842CDB8-3B48-48AF-B6E2-EC074E85DE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F4E5218A-52D5-48FD-87E4-9D3B129481B2}</author>
+    <author>DongBin Kim</author>
   </authors>
   <commentList>
     <comment ref="D92" authorId="0" shapeId="0" xr:uid="{F4E5218A-52D5-48FD-87E4-9D3B129481B2}">
@@ -48,6 +49,33 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Possibly TRI</t>
+      </text>
+    </comment>
+    <comment ref="D147" authorId="1" shapeId="0" xr:uid="{F4F59EDD-9C50-4037-878A-FFB80FE3A3FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DongBin Kim:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20015 : Main
+20016 : Mylist
+20018 : JobHiring
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -118,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="352">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1165,13 +1193,22 @@
   </si>
   <si>
     <t>https://www.ydlidar.com/</t>
+  </si>
+  <si>
+    <t>Jobhiring</t>
+  </si>
+  <si>
+    <t>https://www.amazon.science/careers</t>
+  </si>
+  <si>
+    <t>Amazon Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,6 +1286,19 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1793,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5755,8 +5805,26 @@
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
+    <row r="145" spans="1:10">
       <c r="E145" s="1"/>
+    </row>
+    <row r="147" spans="1:10"/>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J148" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5771,19 +5839,20 @@
     <hyperlink ref="F72" r:id="rId8" xr:uid="{909EFC45-DAAF-479A-95CF-70404BB1EC38}"/>
     <hyperlink ref="F4" r:id="rId9" xr:uid="{D77482EE-2568-463B-AE48-79639E84661C}"/>
     <hyperlink ref="F73" r:id="rId10" xr:uid="{C5651E59-6503-47A9-B727-184C37442C47}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
-    <hyperlink ref="F92" r:id="rId12" xr:uid="{B7001163-C82F-4034-94EC-C78A6A60617E}"/>
-    <hyperlink ref="F93:F110" r:id="rId13" display="https://www.tri.global/" xr:uid="{48ED4A96-185C-4C6D-ACF4-4C6B83EDDC9A}"/>
-    <hyperlink ref="F112" r:id="rId14" xr:uid="{EEBB1F8D-87FE-43FA-B691-149C1B61F50B}"/>
-    <hyperlink ref="F113:F120" r:id="rId15" display="https://iros2021.org" xr:uid="{0341DB0A-8136-4537-8189-F07DC8DC9A36}"/>
-    <hyperlink ref="F46" r:id="rId16" xr:uid="{B8127B5E-72D6-4430-B840-CF6FECE02181}"/>
-    <hyperlink ref="F50" r:id="rId17" xr:uid="{3AAF3E8A-6255-45B0-B677-CA6ABC2BFEEF}"/>
-    <hyperlink ref="F49" r:id="rId18" xr:uid="{92F087A9-A4FF-44EE-B0DF-9D977F98B356}"/>
-    <hyperlink ref="F74" r:id="rId19" xr:uid="{49937CE6-E8D5-4157-A59D-3DF456C32564}"/>
+    <hyperlink ref="F92" r:id="rId11" xr:uid="{B7001163-C82F-4034-94EC-C78A6A60617E}"/>
+    <hyperlink ref="F93:F110" r:id="rId12" display="https://www.tri.global/" xr:uid="{48ED4A96-185C-4C6D-ACF4-4C6B83EDDC9A}"/>
+    <hyperlink ref="F112" r:id="rId13" xr:uid="{EEBB1F8D-87FE-43FA-B691-149C1B61F50B}"/>
+    <hyperlink ref="F113:F120" r:id="rId14" display="https://iros2021.org" xr:uid="{0341DB0A-8136-4537-8189-F07DC8DC9A36}"/>
+    <hyperlink ref="F46" r:id="rId15" xr:uid="{B8127B5E-72D6-4430-B840-CF6FECE02181}"/>
+    <hyperlink ref="F50" r:id="rId16" xr:uid="{3AAF3E8A-6255-45B0-B677-CA6ABC2BFEEF}"/>
+    <hyperlink ref="F49" r:id="rId17" xr:uid="{92F087A9-A4FF-44EE-B0DF-9D977F98B356}"/>
+    <hyperlink ref="F74" r:id="rId18" xr:uid="{49937CE6-E8D5-4157-A59D-3DF456C32564}"/>
+    <hyperlink ref="F148" r:id="rId19" xr:uid="{4FD94A59-16AD-4F78-A452-61CE06B09527}"/>
+    <hyperlink ref="F5" r:id="rId20" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -5791,8 +5860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842CDB8-3B48-48AF-B6E2-EC074E85DE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA298F-063A-47FF-8D9F-6AF0CB0BD842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="355">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1202,13 +1202,22 @@
   </si>
   <si>
     <t>Amazon Science</t>
+  </si>
+  <si>
+    <t>Yaskawa</t>
+  </si>
+  <si>
+    <t>https://www.yaskawa-global.com</t>
+  </si>
+  <si>
+    <t>As a ‘technology-centric’ company aiming to be the world’s best, Yaskawa Electric corporation is constantly developing the new robotics technologies.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1308,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF344854"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1415,7 +1430,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,6 +1499,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1843,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5824,6 +5842,615 @@
       </c>
       <c r="J148" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J152" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J153" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J154" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J155" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J156" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J157" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J158" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J159" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J160" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J161" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J162" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J163" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J164" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J165" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J166" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J167" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J168" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J169" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J170" s="26" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5849,10 +6476,12 @@
     <hyperlink ref="F74" r:id="rId18" xr:uid="{49937CE6-E8D5-4157-A59D-3DF456C32564}"/>
     <hyperlink ref="F148" r:id="rId19" xr:uid="{4FD94A59-16AD-4F78-A452-61CE06B09527}"/>
     <hyperlink ref="F5" r:id="rId20" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
+    <hyperlink ref="F150" r:id="rId21" xr:uid="{FA9D39AB-6F64-41E1-9AD5-AAF1C996B56F}"/>
+    <hyperlink ref="F151:F170" r:id="rId22" display="https://www.yaskawa-global.com" xr:uid="{2985FCCC-BD13-42E6-9F10-2A26F303CDD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/polls/IROS20_Partners.xlsx
+++ b/polls/IROS20_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA298F-063A-47FF-8D9F-6AF0CB0BD842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6CB4C-2AC0-4EAF-AEA0-A76EF17A0572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="358">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1211,6 +1211,15 @@
   </si>
   <si>
     <t>As a ‘technology-centric’ company aiming to be the world’s best, Yaskawa Electric corporation is constantly developing the new robotics technologies.  </t>
+  </si>
+  <si>
+    <t>Honda Research Institute</t>
+  </si>
+  <si>
+    <t>https://www.jp.honda-ri.com/en/index.html</t>
+  </si>
+  <si>
+    <t>Honda Research Institute (HRI) was established in 2003 in Japan, the United States and Europe with our overarching principle “Innovation through Science.”</t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6451,6 +6460,29 @@
       </c>
       <c r="J170" s="26" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +6510,11 @@
     <hyperlink ref="F5" r:id="rId20" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
     <hyperlink ref="F150" r:id="rId21" xr:uid="{FA9D39AB-6F64-41E1-9AD5-AAF1C996B56F}"/>
     <hyperlink ref="F151:F170" r:id="rId22" display="https://www.yaskawa-global.com" xr:uid="{2985FCCC-BD13-42E6-9F10-2A26F303CDD2}"/>
+    <hyperlink ref="F172" r:id="rId23" xr:uid="{CF48DBD2-233F-46F2-B322-C4592CD30EE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
